--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>327282.5286910284</v>
+        <v>331494.4864623989</v>
       </c>
     </row>
     <row r="7">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.7116981491</v>
+        <v>512047.711698149</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.7116981489</v>
+        <v>512047.711698149</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="C4" t="n">
-        <v>463844.333129713</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="D4" t="n">
-        <v>463844.3331297129</v>
+        <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="F4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="G4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="H4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="I4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="J4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="K4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="L4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="M4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="N4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="O4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
       <c r="P4" t="n">
-        <v>70491.41612351945</v>
+        <v>70080.38400395973</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>14575.7785684362</v>
+        <v>15269.38059603923</v>
       </c>
       <c r="C6" t="n">
-        <v>14575.77856843596</v>
+        <v>15269.38059603929</v>
       </c>
       <c r="D6" t="n">
-        <v>14575.77856843614</v>
+        <v>15269.38059603929</v>
       </c>
       <c r="E6" t="n">
-        <v>-64302.34304119835</v>
+        <v>-63891.31092163857</v>
       </c>
       <c r="F6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="G6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="H6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="I6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="J6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="K6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="L6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="M6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="N6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="O6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836144</v>
       </c>
       <c r="P6" t="n">
-        <v>68797.65695880172</v>
+        <v>69208.68907836147</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>331494.4864623989</v>
+        <v>345220.8445998171</v>
       </c>
     </row>
     <row r="7">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26424,40 +26426,40 @@
         <v>463150.7311021098</v>
       </c>
       <c r="E4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="F4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="G4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="H4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="I4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="J4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="K4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="L4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="M4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="N4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="O4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
       <c r="P4" t="n">
-        <v>70080.38400395973</v>
+        <v>70080.38400395971</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15269.38059603923</v>
+        <v>15269.38059603927</v>
       </c>
       <c r="C6" t="n">
-        <v>15269.38059603929</v>
+        <v>15269.38059603921</v>
       </c>
       <c r="D6" t="n">
-        <v>15269.38059603929</v>
+        <v>15269.38059603927</v>
       </c>
       <c r="E6" t="n">
-        <v>-63891.31092163857</v>
+        <v>-63891.31092163861</v>
       </c>
       <c r="F6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="G6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="H6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="I6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="J6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="K6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="L6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="M6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="N6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836145</v>
       </c>
       <c r="O6" t="n">
-        <v>69208.68907836144</v>
+        <v>69208.68907836148</v>
       </c>
       <c r="P6" t="n">
-        <v>69208.68907836147</v>
+        <v>69208.68907836148</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_22_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>345220.8445998171</v>
+        <v>261435.442838192</v>
       </c>
     </row>
     <row r="7">
@@ -26313,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981489</v>
       </c>
       <c r="C2" t="n">
-        <v>512047.711698149</v>
+        <v>512047.7116981491</v>
       </c>
       <c r="D2" t="n">
         <v>512047.711698149</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>15269.38059603927</v>
+        <v>15225.24481735797</v>
       </c>
       <c r="C6" t="n">
-        <v>15269.38059603921</v>
+        <v>15225.24481735821</v>
       </c>
       <c r="D6" t="n">
-        <v>15269.38059603927</v>
+        <v>15225.24481735809</v>
       </c>
       <c r="E6" t="n">
-        <v>-63891.31092163861</v>
+        <v>-78701.32776075252</v>
       </c>
       <c r="F6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="G6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="H6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="I6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="J6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="K6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="L6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="M6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924758</v>
       </c>
       <c r="N6" t="n">
-        <v>69208.68907836145</v>
+        <v>54398.67223924755</v>
       </c>
       <c r="O6" t="n">
-        <v>69208.68907836148</v>
+        <v>54398.67223924752</v>
       </c>
       <c r="P6" t="n">
-        <v>69208.68907836148</v>
+        <v>54398.67223924755</v>
       </c>
     </row>
   </sheetData>
